--- a/public/data/profit/profit_table_senegal.xlsx
+++ b/public/data/profit/profit_table_senegal.xlsx
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-7.12</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-29.63</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-5.58</v>
+        <v>25.49</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-30.49</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-29.97</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-30.07</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-4.97</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-10.26</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-188.25</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-304.93</v>
+        <v>-128.27</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-6.14</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.19</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-5.18</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-8.32</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-33.06</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-44.39</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2653,19 +2653,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-54.11</v>
+        <v>-41.75</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-5.98</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-5.93</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2733,19 +2733,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-16.65</v>
+        <v>12.88</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-9.05</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-9.05</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-9.06</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-9.04</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-60.6</v>
+        <v>-30.5</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-4.51</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.97</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-8.16</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-5.47</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-9.53</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-24.88</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-32.01</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-2.15</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-2.14</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-7.12</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -4570,22 +4570,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-23.76</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-1.37</v>
+        <v>45.71</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-25.21</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>-24.32</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>-24.33</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4650,22 +4650,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>-381.51</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-353.45</v>
+        <v>-199.89</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>-381.51</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>-381.51</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-381.51</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-326.21</v>
+        <v>-116.22</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -4810,22 +4810,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>-13.81</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-239.83</v>
+        <v>-151.2</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-13.83</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>-13.83</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>-13.82</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
